--- a/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
+++ b/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\문서\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{5B3A5D2A-FE8F-4D00-926A-0C5D4F0D424D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7E23CF3C-1923-4511-B876-50751A032B4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D5276-3549-4874-A2E2-4B35531322BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>재화 등장 및 획득 이펙트가 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>사운드</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -274,38 +270,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>제대로 표시되는 것인지 뭔지, 정확히 알 수가 없음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 애니메이션이 있는지??</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션 화면에서 홈 화면으로 이동할 수가 없음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>실제 표시되는 가이드라인과 살짝 어긋남. 게임에 큰 영향이 될 것 같지는 않음</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>확인 필요</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>홈 버튼이 없음</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>등장할 때도 이펙트가 있는지?? 획득 시에는 이펙트가 있기는 함</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래그 애니메이션이 뭔지 모르겠음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>블록 생성 시, 이펙트 없는 것 같은데?</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -318,11 +290,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>출력은 되는데, 좀 밀려서 나오는 것 같음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>음악이 나오긴하는데, 그게 Game_Over&amp;Clear_Sound 인지는 모르겠음</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 획득 이펙트가 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력은 되는데, 좀 밀려서 나오는 것 같음 ( 수정됨 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장할 때도 이펙트가 있는지?? 획득 시에는 이펙트가 있기는 함 ( 수정됨 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래그 애니메이션이 뭔지 모르겠음 ( 수정됨 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLAY로 변경 예정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 필요 ( 테이블 변경 예정 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 애니메이션이 있는지?? ( 수정됨 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 화면에서 홈 화면으로 이동할 수가 없음 ( 수정됨 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 뽑기 화면 수정 필요</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -679,9 +683,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,27 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1348,59 +1352,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:T31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="2.1875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="11.6875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.69921875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="G2" s="20" t="s">
+    <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G93,"O")</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>24.242424242424242</v>
+        <v>34.722222222222221</v>
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1413,19 +1417,19 @@
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>75.757575757575751</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+        <v>65.277777777777786</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="9">
         <f>COUNTIF(G9:G93,"애매함")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1433,36 +1437,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1475,25 +1479,25 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -1509,23 +1513,23 @@
       <c r="G9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-    </row>
-    <row r="10" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+    </row>
+    <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -1535,21 +1539,21 @@
       <c r="G10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-    </row>
-    <row r="11" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>3</v>
       </c>
@@ -1559,22 +1563,22 @@
       <c r="G11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>4</v>
       </c>
@@ -1584,22 +1588,22 @@
       <c r="G12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>5</v>
       </c>
@@ -1607,26 +1611,26 @@
         <v>24</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>6</v>
       </c>
@@ -1637,26 +1641,26 @@
         <v>23</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>7</v>
       </c>
@@ -1666,22 +1670,22 @@
       <c r="G15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>8</v>
       </c>
@@ -1691,24 +1695,24 @@
       <c r="G16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
+      <c r="H16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>9</v>
       </c>
@@ -1718,22 +1722,22 @@
       <c r="G17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>10</v>
       </c>
@@ -1744,22 +1748,22 @@
       <c r="G18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>11</v>
       </c>
@@ -1770,22 +1774,22 @@
       <c r="G19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>12</v>
       </c>
@@ -1796,24 +1800,24 @@
       <c r="G20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
+      <c r="H20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>13</v>
       </c>
@@ -1824,22 +1828,22 @@
       <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -1849,22 +1853,22 @@
       <c r="G22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>15</v>
       </c>
@@ -1878,22 +1882,22 @@
       <c r="G23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>16</v>
       </c>
@@ -1903,24 +1907,24 @@
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
+      <c r="H24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>17</v>
       </c>
@@ -1931,22 +1935,22 @@
       <c r="G25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>18</v>
       </c>
@@ -1957,22 +1961,22 @@
       <c r="G26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>19</v>
       </c>
@@ -1986,22 +1990,22 @@
       <c r="G27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>20</v>
       </c>
@@ -2012,22 +2016,22 @@
       <c r="G28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>21</v>
       </c>
@@ -2038,22 +2042,22 @@
       <c r="G29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>22</v>
       </c>
@@ -2064,22 +2068,22 @@
       <c r="G30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>23</v>
       </c>
@@ -2088,24 +2092,26 @@
         <v>35</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>24</v>
       </c>
@@ -2116,22 +2122,22 @@
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>25</v>
       </c>
@@ -2143,26 +2149,26 @@
         <v>49</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>26</v>
       </c>
@@ -2173,24 +2179,24 @@
       <c r="G34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
+      <c r="H34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>27</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
@@ -2218,7 +2224,7 @@
       <c r="T35" s="31"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>28</v>
       </c>
@@ -2227,24 +2233,24 @@
         <v>50</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>29</v>
       </c>
@@ -2252,24 +2258,24 @@
         <v>46</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>30</v>
       </c>
@@ -2278,1172 +2284,1185 @@
         <v>51</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>31</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-    </row>
-    <row r="41" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+    </row>
+    <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>33</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>34</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>35</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>36</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
+      <c r="H44" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>37</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
+      <c r="H45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>38</v>
       </c>
       <c r="E46" s="17"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <v>39</v>
       </c>
       <c r="E47" s="17"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>40</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>41</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>42</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>43</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>44</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-    </row>
-    <row r="53" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+    </row>
+    <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>45</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>46</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>47</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>48</v>
       </c>
       <c r="G56" s="18"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>49</v>
       </c>
       <c r="G57" s="18"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>50</v>
       </c>
       <c r="G58" s="18"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>51</v>
       </c>
       <c r="G59" s="18"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>52</v>
       </c>
       <c r="G60" s="18"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>53</v>
       </c>
       <c r="G61" s="18"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>54</v>
       </c>
       <c r="G62" s="18"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>55</v>
       </c>
       <c r="G63" s="18"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>56</v>
       </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>57</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>58</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>59</v>
       </c>
-      <c r="H67" s="29"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>60</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>61</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>62</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>63</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>64</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>65</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>66</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>67</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>68</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>69</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>70</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>71</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>72</v>
       </c>
       <c r="F80" s="16"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>73</v>
       </c>
       <c r="F81" s="16"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>74</v>
       </c>
       <c r="F82" s="16"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-    </row>
-    <row r="83" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+    </row>
+    <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>75</v>
       </c>
       <c r="F83" s="16"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-    </row>
-    <row r="84" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+    </row>
+    <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
       <c r="F84" s="16"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-    </row>
-    <row r="85" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+    </row>
+    <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
       <c r="F85" s="16"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-    </row>
-    <row r="86" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+    </row>
+    <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
       <c r="F86" s="16"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-    </row>
-    <row r="87" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+    </row>
+    <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
       <c r="F87" s="16"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-    </row>
-    <row r="88" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+    </row>
+    <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
       <c r="F88" s="16"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-    </row>
-    <row r="89" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+    </row>
+    <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
       <c r="F89" s="16"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-    </row>
-    <row r="90" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+    </row>
+    <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
       <c r="F90" s="16"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-    </row>
-    <row r="91" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+    </row>
+    <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-    </row>
-    <row r="92" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+    </row>
+    <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-    </row>
-    <row r="93" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+    </row>
+    <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="H64:T64"/>
     <mergeCell ref="H47:T47"/>
     <mergeCell ref="H48:T48"/>
@@ -3460,49 +3479,36 @@
     <mergeCell ref="H55:T55"/>
     <mergeCell ref="H56:T56"/>
     <mergeCell ref="H57:T57"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">

--- a/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
+++ b/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D5276-3549-4874-A2E2-4B35531322BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C2837-2576-4917-95A2-672301545090}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -210,10 +210,6 @@
   </si>
   <si>
     <t>인벤토리에 블록이 추가될 때, 이펙트가 발생하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>공이 벽에 부딪힐 때, 이펙트가 발생하는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -262,18 +258,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>재화가 필드에 등장 할 때, Goods_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>무한 모드 게임 종료 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>실제 표시되는 가이드라인과 살짝 어긋남. 게임에 큰 영향이 될 것 같지는 않음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>홈 버튼이 없음</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -286,47 +274,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>재화가 등장할 때, 뭐 아무것도 없는 것 같음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>음악이 나오긴하는데, 그게 Game_Over&amp;Clear_Sound 인지는 모르겠음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>재화 획득 이펙트가 제대로 작동하는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>출력은 되는데, 좀 밀려서 나오는 것 같음 ( 수정됨 )</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장할 때도 이펙트가 있는지?? 획득 시에는 이펙트가 있기는 함 ( 수정됨 )</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래그 애니메이션이 뭔지 모르겠음 ( 수정됨 )</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPLAY로 변경 예정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 필요 ( 테이블 변경 예정 )</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 애니메이션이 있는지?? ( 수정됨 )</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션 화면에서 홈 화면으로 이동할 수가 없음 ( 수정됨 )</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>공 뽑기 화면 수정 필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공이 벽에 부딪힐 때, 이펙트가 발생하는가 ( +1 이미지 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 모드</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,44 +643,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1352,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1375,10 +1338,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="20"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1393,14 +1356,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G93,"O")</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>34.722222222222221</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1410,14 +1373,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G93,"X")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>65.277777777777786</v>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1426,7 +1389,7 @@
       </c>
       <c r="H5" s="9">
         <f>COUNTIF(G9:G93,"애매함")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1438,33 +1401,33 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1479,23 +1442,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1513,21 +1476,21 @@
       <c r="G9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="H9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1539,19 +1502,19 @@
       <c r="G10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1561,21 +1524,21 @@
         <v>22</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1588,19 +1551,19 @@
       <c r="G12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1613,21 +1576,19 @@
       <c r="G13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1643,21 +1604,19 @@
       <c r="G14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1670,19 +1629,19 @@
       <c r="G15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1693,23 +1652,21 @@
         <v>27</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1722,19 +1679,19 @@
       <c r="G17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1748,19 +1705,19 @@
       <c r="G18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1769,24 +1726,24 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1798,23 +1755,21 @@
         <v>30</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1828,19 +1783,19 @@
       <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1853,19 +1808,19 @@
       <c r="G22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1882,19 +1837,19 @@
       <c r="G23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1907,21 +1862,21 @@
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
+      <c r="H24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1935,19 +1890,19 @@
       <c r="G25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1961,19 +1916,19 @@
       <c r="G26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1990,19 +1945,19 @@
       <c r="G27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2016,19 +1971,19 @@
       <c r="G28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2042,19 +1997,19 @@
       <c r="G29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2066,21 +2021,21 @@
         <v>42</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2094,21 +2049,19 @@
       <c r="G31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2122,19 +2075,19 @@
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2142,30 +2095,28 @@
         <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2179,21 +2130,21 @@
       <c r="G34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
+      <c r="H34" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2202,26 +2153,26 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
+      <c r="H35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2230,24 +2181,24 @@
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2255,24 +2206,24 @@
         <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2281,24 +2232,24 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2307,26 +2258,24 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2334,28 +2283,28 @@
         <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2363,24 +2312,24 @@
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2389,26 +2338,24 @@
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2417,24 +2364,24 @@
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2443,54 +2390,47 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>37</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2498,19 +2438,19 @@
         <v>38</v>
       </c>
       <c r="E46" s="17"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2518,151 +2458,151 @@
         <v>39</v>
       </c>
       <c r="E47" s="17"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>40</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>41</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>42</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>43</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>44</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>45</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>46</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2671,19 +2611,19 @@
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2691,19 +2631,19 @@
         <v>48</v>
       </c>
       <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2711,19 +2651,19 @@
         <v>49</v>
       </c>
       <c r="G57" s="18"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2731,19 +2671,19 @@
         <v>50</v>
       </c>
       <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2751,19 +2691,19 @@
         <v>51</v>
       </c>
       <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2771,19 +2711,19 @@
         <v>52</v>
       </c>
       <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2791,19 +2731,19 @@
         <v>53</v>
       </c>
       <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2811,19 +2751,19 @@
         <v>54</v>
       </c>
       <c r="G62" s="18"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2831,323 +2771,323 @@
         <v>55</v>
       </c>
       <c r="G63" s="18"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>56</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>57</v>
       </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>58</v>
       </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>59</v>
       </c>
-      <c r="H67" s="22"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>60</v>
       </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>61</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>62</v>
       </c>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>63</v>
       </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>64</v>
       </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>65</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>66</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>67</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>68</v>
       </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>69</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>70</v>
       </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>71</v>
       </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3155,19 +3095,19 @@
         <v>72</v>
       </c>
       <c r="F80" s="16"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3175,19 +3115,19 @@
         <v>73</v>
       </c>
       <c r="F81" s="16"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3195,258 +3135,278 @@
         <v>74</v>
       </c>
       <c r="F82" s="16"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
     </row>
     <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>75</v>
       </c>
       <c r="F83" s="16"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
     </row>
     <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
       <c r="F84" s="16"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
     </row>
     <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
       <c r="F85" s="16"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
     </row>
     <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
       <c r="F86" s="16"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
     </row>
     <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
       <c r="F87" s="16"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
     </row>
     <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
       <c r="F88" s="16"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
     </row>
     <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
       <c r="F89" s="16"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
     </row>
     <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
       <c r="F90" s="16"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
     </row>
     <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
     </row>
     <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
     </row>
     <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
     <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="H47:T47"/>
+    <mergeCell ref="H48:T48"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="H50:T50"/>
+    <mergeCell ref="H51:T51"/>
+    <mergeCell ref="H52:T52"/>
+    <mergeCell ref="H53:T53"/>
+    <mergeCell ref="H54:T54"/>
+    <mergeCell ref="H59:T59"/>
+    <mergeCell ref="H60:T60"/>
+    <mergeCell ref="H61:T61"/>
+    <mergeCell ref="H63:T63"/>
+    <mergeCell ref="H55:T55"/>
+    <mergeCell ref="H56:T56"/>
+    <mergeCell ref="H57:T57"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="H26:T26"/>
     <mergeCell ref="H9:T9"/>
@@ -3463,52 +3423,32 @@
     <mergeCell ref="H15:T15"/>
     <mergeCell ref="H17:T17"/>
     <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="H47:T47"/>
-    <mergeCell ref="H48:T48"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="H50:T50"/>
-    <mergeCell ref="H51:T51"/>
-    <mergeCell ref="H52:T52"/>
-    <mergeCell ref="H53:T53"/>
-    <mergeCell ref="H54:T54"/>
-    <mergeCell ref="H59:T59"/>
-    <mergeCell ref="H60:T60"/>
-    <mergeCell ref="H61:T61"/>
-    <mergeCell ref="H63:T63"/>
-    <mergeCell ref="H55:T55"/>
-    <mergeCell ref="H56:T56"/>
-    <mergeCell ref="H57:T57"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">
@@ -3610,7 +3550,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G106">
+  <conditionalFormatting sqref="G46:G106 G9:G44">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>

--- a/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
+++ b/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C2837-2576-4917-95A2-672301545090}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D918B4-F233-45B0-9563-1AFD36FF4299}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>무한 모드 게임 종료 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>홈 버튼이 없음</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -278,15 +274,111 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>공 뽑기 화면 수정 필요</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>공이 벽에 부딪힐 때, 이펙트가 발생하는가 ( +1 이미지 )</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 모드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한 모드 메인 화면으로 제대로 이동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 챌린지 모드 입장 시, 튜토리얼 문장 이미지가 표기되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 챌린지의 제한 조건이 제대로 이루어지는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 패배 팝업 애니메이션이 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 패배 이펙트가 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 모드 성공 후 메인 화면 복귀 시, 별 이펙트 &amp; 애니메이션이 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 팝업 애니메이션이 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 이펙트가 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 시, 공 스킨을 제대로 획득하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 뽑기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로 가기 아이콘은 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 공 아이콘이 제대로 이동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공을 획득 했을 경우, 해당 공이 제대로 해금되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 보고 뽑기 버튼은 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 공 뽑기 버튼은 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 화면 드래그는 제대로 가능한가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공을 선택했을 경우, 해당 공 스킨이 게임 모드 내에서 제대로 변경되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화로 공을 뽑았을 경우, 재화가 제대로 감소하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한 모드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 모드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실패 시, Fail_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 획득 시, Get_Ball_Sound가 제대로 출력되는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,9 +735,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,32 +783,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -695,7 +796,118 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1316,7 +1528,7 @@
   <dimension ref="B1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1338,10 +1550,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="31"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1356,14 +1568,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G93,"O")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>41.666666666666671</v>
+        <v>43.055555555555557</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1380,7 +1592,7 @@
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>58.333333333333336</v>
+        <v>56.944444444444443</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1389,7 +1601,7 @@
       </c>
       <c r="H5" s="9">
         <f>COUNTIF(G9:G93,"애매함")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1401,33 +1613,33 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1442,23 +1654,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1474,23 +1686,21 @@
         <v>20</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1502,19 +1712,19 @@
       <c r="G10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1526,19 +1736,19 @@
       <c r="G11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1551,19 +1761,19 @@
       <c r="G12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1576,19 +1786,19 @@
       <c r="G13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1604,19 +1814,19 @@
       <c r="G14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1629,19 +1839,19 @@
       <c r="G15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1654,19 +1864,19 @@
       <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1679,19 +1889,19 @@
       <c r="G17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1705,19 +1915,19 @@
       <c r="G18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1731,19 +1941,19 @@
       <c r="G19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1757,19 +1967,19 @@
       <c r="G20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1783,19 +1993,19 @@
       <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1808,19 +2018,19 @@
       <c r="G22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1837,19 +2047,19 @@
       <c r="G23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1862,21 +2072,21 @@
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
+      <c r="H24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1890,19 +2100,19 @@
       <c r="G25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1916,19 +2126,19 @@
       <c r="G26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1945,19 +2155,19 @@
       <c r="G27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1971,19 +2181,19 @@
       <c r="G28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1997,25 +2207,27 @@
       <c r="G29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>22</v>
       </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="17"/>
       <c r="F30" s="2" t="s">
         <v>42</v>
@@ -2023,19 +2235,19 @@
       <c r="G30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2049,19 +2261,19 @@
       <c r="G31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2075,19 +2287,19 @@
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2104,19 +2316,19 @@
       <c r="G33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2130,21 +2342,21 @@
       <c r="G34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
+      <c r="H34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2153,32 +2365,33 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
+      <c r="H35" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>28</v>
       </c>
+      <c r="D36" s="21"/>
       <c r="E36" s="17"/>
       <c r="F36" s="2" t="s">
         <v>49</v>
@@ -2186,19 +2399,19 @@
       <c r="G36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2211,19 +2424,19 @@
       <c r="G37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2237,19 +2450,19 @@
       <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2258,78 +2471,81 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>32</v>
       </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
+      <c r="F40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>33</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
+      <c r="F41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2337,1060 +2553,1311 @@
         <v>34</v>
       </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
+      <c r="F42" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>35</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
+      <c r="F43" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>36</v>
       </c>
-      <c r="E44" s="17"/>
       <c r="F44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>37</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
+      <c r="D45" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>38</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <v>39</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>40</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>41</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>42</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>43</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
+      <c r="F51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>44</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
+      <c r="D52" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>45</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>46</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>47</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>48</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
+      <c r="D56" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>49</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
+      <c r="F57" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>50</v>
       </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
+      <c r="F58" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>51</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
+      <c r="F59" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>52</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
+      <c r="F60" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>53</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
+      <c r="F61" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>54</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
+      <c r="D62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>55</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
+      <c r="F63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>56</v>
       </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+      <c r="F64" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>57</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
+      <c r="F65" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>58</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
+      <c r="F66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>59</v>
       </c>
-      <c r="H67" s="30"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
+      <c r="F67" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="26"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>60</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
+      <c r="F68" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>61</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
+      <c r="F69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>62</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
+      <c r="F70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>63</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
+      <c r="C71" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>64</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
+      <c r="D72" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>65</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
+      <c r="D73" s="17"/>
+      <c r="F73" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>66</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
+      <c r="D74" s="17"/>
+      <c r="F74" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>67</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
+      <c r="D75" s="17"/>
+      <c r="F75" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>68</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
+      <c r="D76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>69</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
+      <c r="F77" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>70</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
+      <c r="F78" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>71</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
+      <c r="F79" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>72</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
+      <c r="F80" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="26"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>73</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
+      <c r="E81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="26"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>74</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
     </row>
     <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>75</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
     </row>
     <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
-      <c r="F84" s="16"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
     </row>
     <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
     </row>
     <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
     </row>
     <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
       <c r="F87" s="16"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
     </row>
     <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
       <c r="F88" s="16"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
     </row>
     <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
       <c r="F89" s="16"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
     </row>
     <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
       <c r="F90" s="16"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
     </row>
     <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
     </row>
     <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
     </row>
     <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="H64:T64"/>
     <mergeCell ref="H47:T47"/>
     <mergeCell ref="H48:T48"/>
@@ -3407,51 +3874,84 @@
     <mergeCell ref="H55:T55"/>
     <mergeCell ref="H56:T56"/>
     <mergeCell ref="H57:T57"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H45:T45"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G29">
     <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
@@ -3462,7 +3962,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
@@ -3473,7 +3973,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
@@ -3484,7 +3984,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G34">
     <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
@@ -3495,7 +3995,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G29">
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
@@ -3506,72 +4006,70 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+  <conditionalFormatting sqref="G9:G39 G87:G106">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>"테스트 안함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="44" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="45" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
-      <formula>"애매함"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
-      <formula>"애매함"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>"애매함"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G106 G9:G44">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"테스트 안함"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
-      <formula>"애매함"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="33" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G70">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"테스트 안함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71:G75">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"테스트 안함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76:G81">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"테스트 안함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
+++ b/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D918B4-F233-45B0-9563-1AFD36FF4299}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A449D4-2D18-4DD1-8AC5-032377DF4CF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="89">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>없는 것 같음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>재화 획득 이펙트가 제대로 작동하는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -379,6 +375,21 @@
   </si>
   <si>
     <t>공 획득 시, Get_Ball_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 &amp;
+애니메이션</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEWAY
+옵션 화면</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_GUIDE
+옵션 화면</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,43 +759,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -796,44 +813,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -1528,7 +1508,7 @@
   <dimension ref="B1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1550,16 +1530,16 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="25"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1568,14 +1548,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G93,"O")</f>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>43.055555555555557</v>
+        <v>73.076923076923066</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1585,14 +1565,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G93,"X")</f>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>56.944444444444443</v>
+        <v>26.923076923076923</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1609,37 +1589,37 @@
         <v>8</v>
       </c>
       <c r="H6" s="14">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="33" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1654,23 +1634,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1688,19 +1668,19 @@
       <c r="G9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1712,19 +1692,19 @@
       <c r="G10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1736,19 +1716,19 @@
       <c r="G11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1761,19 +1741,19 @@
       <c r="G12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1786,19 +1766,19 @@
       <c r="G13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1814,19 +1794,19 @@
       <c r="G14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1839,19 +1819,19 @@
       <c r="G15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1864,19 +1844,19 @@
       <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1889,19 +1869,19 @@
       <c r="G17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1915,19 +1895,19 @@
       <c r="G18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1941,19 +1921,19 @@
       <c r="G19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1967,19 +1947,19 @@
       <c r="G20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1993,19 +1973,19 @@
       <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2018,19 +1998,19 @@
       <c r="G22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2047,19 +2027,19 @@
       <c r="G23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2072,21 +2052,21 @@
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2100,19 +2080,19 @@
       <c r="G25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2126,19 +2106,19 @@
       <c r="G26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2155,19 +2135,19 @@
       <c r="G27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2181,19 +2161,19 @@
       <c r="G28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2207,19 +2187,19 @@
       <c r="G29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2235,19 +2215,19 @@
       <c r="G30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2261,19 +2241,19 @@
       <c r="G31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2287,19 +2267,19 @@
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2316,19 +2296,19 @@
       <c r="G33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2342,21 +2322,21 @@
       <c r="G34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2365,26 +2345,24 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2399,19 +2377,19 @@
       <c r="G36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2424,19 +2402,19 @@
       <c r="G37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2450,19 +2428,19 @@
       <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2471,24 +2449,24 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2496,31 +2474,31 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2531,21 +2509,21 @@
         <v>21</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2554,24 +2532,24 @@
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2582,21 +2560,21 @@
         <v>23</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2604,24 +2582,24 @@
         <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2632,24 +2610,24 @@
         <v>25</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2661,21 +2639,21 @@
         <v>23</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2688,21 +2666,21 @@
         <v>26</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2715,21 +2693,21 @@
         <v>27</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2739,24 +2717,24 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2769,21 +2747,21 @@
         <v>46</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2791,24 +2769,24 @@
         <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2823,21 +2801,21 @@
         <v>34</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2849,21 +2827,21 @@
         <v>35</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2876,21 +2854,21 @@
         <v>36</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2903,21 +2881,21 @@
         <v>37</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2925,230 +2903,233 @@
         <v>48</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
+        <v>87</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>49</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
+      <c r="F57" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>50</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
+      <c r="F58" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>51</v>
       </c>
-      <c r="F59" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
+      <c r="F59" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>52</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
+      <c r="D60" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>53</v>
       </c>
-      <c r="F61" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
+      <c r="F61" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>54</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
+      <c r="F62" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>55</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
+      <c r="F63" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>56</v>
       </c>
+      <c r="D64" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="F64" s="19" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3156,49 +3137,49 @@
         <v>57</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>58</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>79</v>
+      <c r="F66" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3206,24 +3187,24 @@
         <v>59</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="26"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H67" s="35"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3231,49 +3212,52 @@
         <v>60</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>61</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>80</v>
+      <c r="D69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3281,24 +3265,24 @@
         <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3309,183 +3293,174 @@
         <v>51</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="25"/>
-      <c r="S71" s="25"/>
-      <c r="T71" s="25"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>64</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="F72" s="19" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
-      <c r="S72" s="25"/>
-      <c r="T72" s="25"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>65</v>
       </c>
-      <c r="D73" s="17"/>
-      <c r="F73" s="19" t="s">
-        <v>54</v>
+      <c r="F73" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>66</v>
       </c>
-      <c r="D74" s="17"/>
       <c r="F74" s="19" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>67</v>
       </c>
-      <c r="D75" s="17"/>
       <c r="F75" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>68</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>53</v>
+      <c r="F76" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="24"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>69</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>54</v>
+      <c r="F77" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="25"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3493,355 +3468,425 @@
         <v>70</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="25"/>
-      <c r="S78" s="25"/>
-      <c r="T78" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>71</v>
       </c>
+      <c r="D79" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="F79" s="19" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
-      <c r="S79" s="25"/>
-      <c r="T79" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>72</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>85</v>
+      <c r="D80" s="17"/>
+      <c r="F80" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="26"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="25"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H80" s="35"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="24"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>73</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>86</v>
+      <c r="D81" s="17"/>
+      <c r="F81" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="26"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="S81" s="25"/>
-      <c r="T81" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="H81" s="35"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>74</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="25"/>
-      <c r="S82" s="25"/>
-      <c r="T82" s="25"/>
+      <c r="D82" s="17"/>
+      <c r="F82" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="24"/>
     </row>
     <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>75</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
-      <c r="T83" s="25"/>
+      <c r="D83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="24"/>
     </row>
     <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
+      <c r="F84" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="24"/>
     </row>
     <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="25"/>
+      <c r="F85" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="24"/>
     </row>
     <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
+      <c r="F86" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
     </row>
     <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
+      <c r="F87" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="24"/>
     </row>
     <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
+      <c r="D88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
     </row>
     <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
       <c r="F89" s="16"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="25"/>
-      <c r="S89" s="25"/>
-      <c r="T89" s="25"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
     </row>
     <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
       <c r="F90" s="16"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
-      <c r="R90" s="25"/>
-      <c r="S90" s="25"/>
-      <c r="T90" s="25"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="24"/>
     </row>
     <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="25"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="24"/>
     </row>
     <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="25"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="25"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="24"/>
     </row>
     <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="25"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="H47:T47"/>
+    <mergeCell ref="H48:T48"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="H50:T50"/>
+    <mergeCell ref="H51:T51"/>
+    <mergeCell ref="H52:T52"/>
+    <mergeCell ref="H53:T53"/>
+    <mergeCell ref="H54:T54"/>
+    <mergeCell ref="H59:T59"/>
+    <mergeCell ref="H60:T60"/>
+    <mergeCell ref="H61:T61"/>
+    <mergeCell ref="H63:T63"/>
+    <mergeCell ref="H55:T55"/>
+    <mergeCell ref="H56:T56"/>
+    <mergeCell ref="H57:T57"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="H26:T26"/>
     <mergeCell ref="H9:T9"/>
@@ -3858,194 +3903,159 @@
     <mergeCell ref="H15:T15"/>
     <mergeCell ref="H17:T17"/>
     <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="H47:T47"/>
-    <mergeCell ref="H48:T48"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="H50:T50"/>
-    <mergeCell ref="H51:T51"/>
-    <mergeCell ref="H52:T52"/>
-    <mergeCell ref="H53:T53"/>
-    <mergeCell ref="H54:T54"/>
-    <mergeCell ref="H59:T59"/>
-    <mergeCell ref="H60:T60"/>
-    <mergeCell ref="H61:T61"/>
-    <mergeCell ref="H63:T63"/>
-    <mergeCell ref="H55:T55"/>
-    <mergeCell ref="H56:T56"/>
-    <mergeCell ref="H57:T57"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G39 G87:G106">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+  <conditionalFormatting sqref="G89:G106 G9:G77">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="44" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="45" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="46" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G70">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"테스트 안함"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"애매함"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G75">
+  <conditionalFormatting sqref="G78:G82">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>
@@ -4059,7 +4069,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76:G81">
+  <conditionalFormatting sqref="G83:G88">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>

--- a/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
+++ b/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A449D4-2D18-4DD1-8AC5-032377DF4CF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AAD950-2F56-41B4-BE52-553DE6F433CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -238,158 +238,162 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>메인 BGM이 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면이 넘어갈 때, Scroll_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽돌이 파괴될 때나 공이 벽에 부딪힐 때, Break&amp;Wall_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽돌이 인벤토리에 등장 할 때, appear_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 버튼이 없음</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록 생성 시, 이펙트 없는 것 같은데?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 획득 이펙트가 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공이 벽에 부딪힐 때, 이펙트가 발생하는가 ( +1 이미지 )</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 모드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한 모드 메인 화면으로 제대로 이동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 챌린지 모드 입장 시, 튜토리얼 문장 이미지가 표기되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 챌린지의 제한 조건이 제대로 이루어지는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 패배 팝업 애니메이션이 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 패배 이펙트가 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 모드 성공 후 메인 화면 복귀 시, 별 이펙트 &amp; 애니메이션이 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 팝업 애니메이션이 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 이펙트가 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 시, 공 스킨을 제대로 획득하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 뽑기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로 가기 아이콘은 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 공 아이콘이 제대로 이동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공을 획득 했을 경우, 해당 공이 제대로 해금되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 보고 뽑기 버튼은 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 공 뽑기 버튼은 제대로 작동하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 화면 드래그는 제대로 가능한가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공을 선택했을 경우, 해당 공 스킨이 게임 모드 내에서 제대로 변경되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화로 공을 뽑았을 경우, 재화가 제대로 감소하는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한 모드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 모드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 성공 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실패 시, Fail_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 획득 시, Get_Ball_Sound가 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEWAY
+옵션 화면</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_GUIDE
+옵션 화면</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>사운드</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>메인 BGM이 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면이 넘어갈 때, Scroll_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽돌이 파괴될 때나 공이 벽에 부딪힐 때, Break&amp;Wall_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽돌이 인벤토리에 등장 할 때, appear_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈 버튼이 없음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록 생성 시, 이펙트 없는 것 같은데?</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 획득 이펙트가 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>공이 벽에 부딪힐 때, 이펙트가 발생하는가 ( +1 이미지 )</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지 모드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한 모드 메인 화면으로 제대로 이동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 챌린지 모드 입장 시, 튜토리얼 문장 이미지가 표기되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 챌린지의 제한 조건이 제대로 이루어지는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 패배 팝업 애니메이션이 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 패배 이펙트가 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지 모드 성공 후 메인 화면 복귀 시, 별 이펙트 &amp; 애니메이션이 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 성공 팝업 애니메이션이 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 성공 이펙트가 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 성공 시, 공 스킨을 제대로 획득하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>공 뽑기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로 가기 아이콘은 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 공 아이콘이 제대로 이동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>공을 획득 했을 경우, 해당 공이 제대로 해금되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 보고 뽑기 버튼은 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 공 뽑기 버튼은 제대로 작동하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 화면 드래그는 제대로 가능한가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>공을 선택했을 경우, 해당 공 스킨이 게임 모드 내에서 제대로 변경되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화로 공을 뽑았을 경우, 재화가 제대로 감소하는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한 모드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 종료 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지 모드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 성공 시, Game_Over&amp;Clear_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 실패 시, Fail_Sound가 제대로 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>공 획득 시, Get_Ball_Sound가 제대로 출력되는가</t>
+    <t>공 뽑기 이펙트가 제대로 출력되는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>이펙트 &amp;
 애니메이션</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONEWAY
-옵션 화면</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO_GUIDE
-옵션 화면</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,7 +820,44 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1508,7 +1552,7 @@
   <dimension ref="B1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1530,16 +1574,16 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="26"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1555,7 +1599,7 @@
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>73.076923076923066</v>
+        <v>72.151898734177209</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1565,14 +1609,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G93,"X")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>26.923076923076923</v>
+        <v>27.848101265822784</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1593,33 +1637,33 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="27" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1634,23 +1678,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1668,19 +1712,19 @@
       <c r="G9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1692,19 +1736,19 @@
       <c r="G10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1716,19 +1760,19 @@
       <c r="G11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1741,19 +1785,19 @@
       <c r="G12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1766,19 +1810,19 @@
       <c r="G13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1794,19 +1838,19 @@
       <c r="G14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1819,19 +1863,19 @@
       <c r="G15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1844,19 +1888,19 @@
       <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1869,19 +1913,19 @@
       <c r="G17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1895,19 +1939,19 @@
       <c r="G18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1921,19 +1965,19 @@
       <c r="G19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1947,19 +1991,19 @@
       <c r="G20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1973,19 +2017,19 @@
       <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1998,19 +2042,19 @@
       <c r="G22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2027,19 +2071,19 @@
       <c r="G23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2052,21 +2096,21 @@
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
+      <c r="H24" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2080,19 +2124,19 @@
       <c r="G25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2106,19 +2150,19 @@
       <c r="G26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2135,19 +2179,19 @@
       <c r="G27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2161,19 +2205,19 @@
       <c r="G28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2187,19 +2231,19 @@
       <c r="G29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2215,19 +2259,19 @@
       <c r="G30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2241,19 +2285,19 @@
       <c r="G31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2267,19 +2311,19 @@
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2296,19 +2340,19 @@
       <c r="G33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2322,21 +2366,21 @@
       <c r="G34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
+      <c r="H34" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2345,24 +2389,24 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2377,19 +2421,19 @@
       <c r="G36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2402,19 +2446,19 @@
       <c r="G37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2428,19 +2472,19 @@
       <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2449,24 +2493,24 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2474,10 +2518,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="19" t="s">
@@ -2486,19 +2530,19 @@
       <c r="G40" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2511,19 +2555,19 @@
       <c r="G41" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2532,24 +2576,24 @@
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2562,19 +2606,19 @@
       <c r="G43" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2582,24 +2626,24 @@
         <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2610,24 +2654,24 @@
         <v>25</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2641,19 +2685,19 @@
       <c r="G46" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2668,19 +2712,19 @@
       <c r="G47" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2695,19 +2739,19 @@
       <c r="G48" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2717,24 +2761,24 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2749,19 +2793,19 @@
       <c r="G50" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2769,24 +2813,24 @@
         <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2803,19 +2847,19 @@
       <c r="G52" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2829,19 +2873,19 @@
       <c r="G53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2856,19 +2900,19 @@
       <c r="G54" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2883,19 +2927,19 @@
       <c r="G55" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2903,7 +2947,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>34</v>
@@ -2911,19 +2955,19 @@
       <c r="G56" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2936,19 +2980,19 @@
       <c r="G57" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2961,19 +3005,19 @@
       <c r="G58" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2986,19 +3030,19 @@
       <c r="G59" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3006,7 +3050,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>34</v>
@@ -3014,19 +3058,19 @@
       <c r="G60" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3039,19 +3083,19 @@
       <c r="G61" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3064,19 +3108,19 @@
       <c r="G62" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3089,19 +3133,19 @@
       <c r="G63" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3109,27 +3153,27 @@
         <v>56</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3137,24 +3181,24 @@
         <v>57</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3162,24 +3206,24 @@
         <v>58</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3187,24 +3231,24 @@
         <v>59</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="35"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3212,24 +3256,24 @@
         <v>60</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3237,7 +3281,7 @@
         <v>61</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F69" s="19" t="s">
         <v>20</v>
@@ -3245,19 +3289,19 @@
       <c r="G69" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3265,52 +3309,50 @@
         <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G70" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>63</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="C71" s="21"/>
       <c r="F71" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3318,24 +3360,24 @@
         <v>64</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3343,24 +3385,24 @@
         <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3368,24 +3410,24 @@
         <v>66</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G74" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
-      <c r="T74" s="24"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3393,24 +3435,24 @@
         <v>67</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3418,24 +3460,24 @@
         <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3443,103 +3485,108 @@
         <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
-      <c r="T77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>70</v>
       </c>
-      <c r="F78" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
+      <c r="D78" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>71</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>80</v>
+      <c r="C79" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G79" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="24"/>
-      <c r="T79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>72</v>
       </c>
-      <c r="D80" s="17"/>
+      <c r="D80" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="F80" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="35"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3548,24 +3595,24 @@
       </c>
       <c r="D81" s="17"/>
       <c r="F81" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
-      <c r="T81" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H81" s="36"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3574,269 +3621,274 @@
       </c>
       <c r="D82" s="17"/>
       <c r="F82" s="19" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
-      <c r="T82" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
     </row>
     <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>75</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="D83" s="17"/>
       <c r="F83" s="19" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G83" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="24"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
     </row>
     <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
+      <c r="D84" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F84" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="24"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
     </row>
     <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
     </row>
     <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
     </row>
     <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
-      <c r="F87" s="16" t="s">
-        <v>84</v>
+      <c r="F87" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
     </row>
     <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F88" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
     </row>
     <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="24"/>
+      <c r="D89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
     </row>
     <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
-      <c r="F90" s="16"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
     </row>
     <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
-      <c r="T91" s="24"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
     </row>
     <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
-      <c r="T92" s="24"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
     </row>
     <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
-      <c r="T93" s="24"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="89">
@@ -3932,130 +3984,144 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89:G106 G9:G77">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+  <conditionalFormatting sqref="G91:G106 G9:G77">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="50" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"애매함"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:G82">
+  <conditionalFormatting sqref="G79:G83">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"테스트 안함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"애매함"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84:G89">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>
@@ -4069,7 +4135,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83:G88">
+  <conditionalFormatting sqref="G78">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>

--- a/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
+++ b/기획서/테스트 케이스/Dispose Break TESTCASE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\문서\GitHub\Dispose_Break\기획서\테스트 케이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AAD950-2F56-41B4-BE52-553DE6F433CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{08523185-039D-48D2-92B5-0D15A026A2A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8190" yWindow="503" windowWidth="16005" windowHeight="15074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -768,9 +768,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,32 +807,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1551,33 +1551,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="2.19921875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="11.69921875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="26" t="s">
+    <row r="1" spans="2:21" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="34"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>27.848101265822784</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1636,36 +1636,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+    </row>
+    <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1678,25 +1678,25 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+    </row>
+    <row r="9" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -1712,21 +1712,21 @@
       <c r="G9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -1736,21 +1736,21 @@
       <c r="G10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B11" s="1">
         <v>3</v>
       </c>
@@ -1760,22 +1760,22 @@
       <c r="G11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="1">
         <v>4</v>
       </c>
@@ -1785,22 +1785,22 @@
       <c r="G12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="1">
         <v>5</v>
       </c>
@@ -1810,22 +1810,22 @@
       <c r="G13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B14" s="1">
         <v>6</v>
       </c>
@@ -1838,22 +1838,22 @@
       <c r="G14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="1">
         <v>7</v>
       </c>
@@ -1863,22 +1863,22 @@
       <c r="G15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B16" s="1">
         <v>8</v>
       </c>
@@ -1888,22 +1888,22 @@
       <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B17" s="1">
         <v>9</v>
       </c>
@@ -1913,22 +1913,22 @@
       <c r="G17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B18" s="1">
         <v>10</v>
       </c>
@@ -1939,22 +1939,22 @@
       <c r="G18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B19" s="1">
         <v>11</v>
       </c>
@@ -1965,22 +1965,22 @@
       <c r="G19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B20" s="1">
         <v>12</v>
       </c>
@@ -1991,22 +1991,22 @@
       <c r="G20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B21" s="1">
         <v>13</v>
       </c>
@@ -2017,22 +2017,22 @@
       <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -2042,22 +2042,22 @@
       <c r="G22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B23" s="1">
         <v>15</v>
       </c>
@@ -2071,22 +2071,22 @@
       <c r="G23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B24" s="1">
         <v>16</v>
       </c>
@@ -2096,24 +2096,24 @@
       <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B25" s="1">
         <v>17</v>
       </c>
@@ -2124,22 +2124,22 @@
       <c r="G25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B26" s="1">
         <v>18</v>
       </c>
@@ -2150,22 +2150,22 @@
       <c r="G26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B27" s="1">
         <v>19</v>
       </c>
@@ -2179,22 +2179,22 @@
       <c r="G27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="1">
         <v>20</v>
       </c>
@@ -2205,22 +2205,22 @@
       <c r="G28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B29" s="1">
         <v>21</v>
       </c>
@@ -2231,22 +2231,22 @@
       <c r="G29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B30" s="1">
         <v>22</v>
       </c>
@@ -2259,22 +2259,22 @@
       <c r="G30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B31" s="1">
         <v>23</v>
       </c>
@@ -2285,22 +2285,22 @@
       <c r="G31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B32" s="1">
         <v>24</v>
       </c>
@@ -2311,22 +2311,22 @@
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B33" s="1">
         <v>25</v>
       </c>
@@ -2340,22 +2340,22 @@
       <c r="G33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B34" s="1">
         <v>26</v>
       </c>
@@ -2366,24 +2366,24 @@
       <c r="G34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B35" s="1">
         <v>27</v>
       </c>
@@ -2394,22 +2394,22 @@
       <c r="G35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B36" s="1">
         <v>28</v>
       </c>
@@ -2421,22 +2421,22 @@
       <c r="G36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B37" s="1">
         <v>29</v>
       </c>
@@ -2446,22 +2446,22 @@
       <c r="G37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B38" s="1">
         <v>30</v>
       </c>
@@ -2472,22 +2472,22 @@
       <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B39" s="1">
         <v>31</v>
       </c>
@@ -2498,22 +2498,22 @@
       <c r="G39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B40" s="1">
         <v>32</v>
       </c>
@@ -2530,21 +2530,21 @@
       <c r="G40" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-    </row>
-    <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B41" s="1">
         <v>33</v>
       </c>
@@ -2555,22 +2555,22 @@
       <c r="G41" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B42" s="1">
         <v>34</v>
       </c>
@@ -2581,22 +2581,22 @@
       <c r="G42" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B43" s="1">
         <v>35</v>
       </c>
@@ -2606,22 +2606,22 @@
       <c r="G43" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B44" s="1">
         <v>36</v>
       </c>
@@ -2631,22 +2631,22 @@
       <c r="G44" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B45" s="1">
         <v>37</v>
       </c>
@@ -2659,22 +2659,22 @@
       <c r="G45" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B46" s="1">
         <v>38</v>
       </c>
@@ -2685,22 +2685,22 @@
       <c r="G46" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B47" s="1">
         <v>39</v>
       </c>
@@ -2712,22 +2712,22 @@
       <c r="G47" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B48" s="1">
         <v>40</v>
       </c>
@@ -2739,22 +2739,22 @@
       <c r="G48" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B49" s="1">
         <v>41</v>
       </c>
@@ -2766,22 +2766,22 @@
       <c r="G49" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B50" s="1">
         <v>42</v>
       </c>
@@ -2793,22 +2793,22 @@
       <c r="G50" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B51" s="1">
         <v>43</v>
       </c>
@@ -2818,22 +2818,22 @@
       <c r="G51" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B52" s="1">
         <v>44</v>
       </c>
@@ -2847,21 +2847,21 @@
       <c r="G52" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-    </row>
-    <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+    </row>
+    <row r="53" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B53" s="1">
         <v>45</v>
       </c>
@@ -2873,22 +2873,22 @@
       <c r="G53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B54" s="1">
         <v>46</v>
       </c>
@@ -2900,22 +2900,22 @@
       <c r="G54" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B55" s="1">
         <v>47</v>
       </c>
@@ -2927,22 +2927,22 @@
       <c r="G55" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B56" s="1">
         <v>48</v>
       </c>
@@ -2955,22 +2955,22 @@
       <c r="G56" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B57" s="1">
         <v>49</v>
       </c>
@@ -2980,22 +2980,22 @@
       <c r="G57" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B58" s="1">
         <v>50</v>
       </c>
@@ -3005,22 +3005,22 @@
       <c r="G58" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B59" s="1">
         <v>51</v>
       </c>
@@ -3030,22 +3030,22 @@
       <c r="G59" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B60" s="1">
         <v>52</v>
       </c>
@@ -3058,22 +3058,22 @@
       <c r="G60" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B61" s="1">
         <v>53</v>
       </c>
@@ -3083,22 +3083,22 @@
       <c r="G61" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B62" s="1">
         <v>54</v>
       </c>
@@ -3108,22 +3108,22 @@
       <c r="G62" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B63" s="1">
         <v>55</v>
       </c>
@@ -3133,22 +3133,22 @@
       <c r="G63" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B64" s="1">
         <v>56</v>
       </c>
@@ -3161,22 +3161,22 @@
       <c r="G64" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B65" s="1">
         <v>57</v>
       </c>
@@ -3186,22 +3186,22 @@
       <c r="G65" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B66" s="1">
         <v>58</v>
       </c>
@@ -3211,22 +3211,22 @@
       <c r="G66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B67" s="1">
         <v>59</v>
       </c>
@@ -3236,22 +3236,22 @@
       <c r="G67" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B68" s="1">
         <v>60</v>
       </c>
@@ -3261,22 +3261,22 @@
       <c r="G68" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B69" s="1">
         <v>61</v>
       </c>
@@ -3289,22 +3289,22 @@
       <c r="G69" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B70" s="1">
         <v>62</v>
       </c>
@@ -3314,22 +3314,22 @@
       <c r="G70" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="25"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B71" s="1">
         <v>63</v>
       </c>
@@ -3340,22 +3340,22 @@
       <c r="G71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="25"/>
-      <c r="S71" s="25"/>
-      <c r="T71" s="25"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B72" s="1">
         <v>64</v>
       </c>
@@ -3365,22 +3365,22 @@
       <c r="G72" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
-      <c r="S72" s="25"/>
-      <c r="T72" s="25"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B73" s="1">
         <v>65</v>
       </c>
@@ -3390,22 +3390,22 @@
       <c r="G73" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B74" s="1">
         <v>66</v>
       </c>
@@ -3415,22 +3415,22 @@
       <c r="G74" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B75" s="1">
         <v>67</v>
       </c>
@@ -3440,22 +3440,22 @@
       <c r="G75" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B76" s="1">
         <v>68</v>
       </c>
@@ -3465,22 +3465,22 @@
       <c r="G76" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B77" s="1">
         <v>69</v>
       </c>
@@ -3490,22 +3490,22 @@
       <c r="G77" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="25"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B78" s="1">
         <v>70</v>
       </c>
@@ -3518,22 +3518,22 @@
       <c r="G78" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="25"/>
-      <c r="S78" s="25"/>
-      <c r="T78" s="25"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B79" s="1">
         <v>71</v>
       </c>
@@ -3546,22 +3546,22 @@
       <c r="G79" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
-      <c r="S79" s="25"/>
-      <c r="T79" s="25"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B80" s="1">
         <v>72</v>
       </c>
@@ -3574,22 +3574,22 @@
       <c r="G80" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="25"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="25"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B81" s="1">
         <v>73</v>
       </c>
@@ -3600,22 +3600,22 @@
       <c r="G81" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="36"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="S81" s="25"/>
-      <c r="T81" s="25"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B82" s="1">
         <v>74</v>
       </c>
@@ -3626,21 +3626,21 @@
       <c r="G82" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="25"/>
-      <c r="S82" s="25"/>
-      <c r="T82" s="25"/>
-    </row>
-    <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+    </row>
+    <row r="83" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B83" s="1">
         <v>75</v>
       </c>
@@ -3651,21 +3651,21 @@
       <c r="G83" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
-      <c r="T83" s="25"/>
-    </row>
-    <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+    </row>
+    <row r="84" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B84" s="1">
         <v>76</v>
       </c>
@@ -3678,21 +3678,21 @@
       <c r="G84" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-    </row>
-    <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+    </row>
+    <row r="85" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B85" s="1">
         <v>77</v>
       </c>
@@ -3702,21 +3702,21 @@
       <c r="G85" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="25"/>
-    </row>
-    <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+    </row>
+    <row r="86" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B86" s="1">
         <v>78</v>
       </c>
@@ -3726,21 +3726,21 @@
       <c r="G86" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
-    </row>
-    <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+    </row>
+    <row r="87" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B87" s="1">
         <v>79</v>
       </c>
@@ -3750,21 +3750,21 @@
       <c r="G87" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
-    </row>
-    <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+    </row>
+    <row r="88" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B88" s="1">
         <v>80</v>
       </c>
@@ -3774,21 +3774,21 @@
       <c r="G88" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-    </row>
-    <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+    </row>
+    <row r="89" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B89" s="1">
         <v>81</v>
       </c>
@@ -3801,128 +3801,139 @@
       <c r="G89" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="25"/>
-      <c r="S89" s="25"/>
-      <c r="T89" s="25"/>
-    </row>
-    <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+    </row>
+    <row r="90" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B90" s="1">
         <v>82</v>
       </c>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
-      <c r="R90" s="25"/>
-      <c r="S90" s="25"/>
-      <c r="T90" s="25"/>
-    </row>
-    <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+    </row>
+    <row r="91" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="25"/>
-    </row>
-    <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+    </row>
+    <row r="92" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="25"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="25"/>
-    </row>
-    <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+    </row>
+    <row r="93" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="25"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="H64:T64"/>
     <mergeCell ref="H47:T47"/>
     <mergeCell ref="H48:T48"/>
@@ -3939,48 +3950,37 @@
     <mergeCell ref="H55:T55"/>
     <mergeCell ref="H56:T56"/>
     <mergeCell ref="H57:T57"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H45:T45"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">
